--- a/result/软件工程学院研究生评阅答辩费用申报表.xlsx
+++ b/result/软件工程学院研究生评阅答辩费用申报表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\paper\后续材料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670720E5-ACD8-4C8A-A6D6-F083C3824981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91677002-F4B8-4CBA-A579-2AC3AB134996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1530" yWindow="1590" windowWidth="26025" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t xml:space="preserve">软件工程学院专业硕士研究生评阅答辩费用申报表                                                      </t>
   </si>
@@ -262,15 +262,23 @@
     <t>中国工商银行上海市金沙江路支行</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>徐杰</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘垚</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +364,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -447,21 +463,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -479,12 +501,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -969,7 +985,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -982,17 +998,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1027,7 +1043,7 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1035,16 +1051,16 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>300</v>
       </c>
     </row>
@@ -1052,51 +1068,55 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="9"/>
+      <c r="I4" s="8">
+        <v>550</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="8">
+        <v>300</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1104,35 +1124,39 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="8">
+        <v>250</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="9"/>
+      <c r="I7" s="8">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
@@ -1145,7 +1169,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="9"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
@@ -1158,7 +1182,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="9"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
@@ -1171,7 +1195,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="9"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
@@ -1184,7 +1208,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="9"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
@@ -1197,7 +1221,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="9"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
@@ -1210,7 +1234,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="9"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
@@ -1223,7 +1247,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="9"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
@@ -1236,70 +1260,81 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="9"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="10">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="9">
         <f>SUM(I3:I15)</f>
-        <v>300</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="19" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="11"/>
+      <c r="H19" s="6">
+        <v>71205902086</v>
+      </c>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="11"/>
+      <c r="H20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="11"/>
+      <c r="H21" s="6">
+        <v>18550978651</v>
+      </c>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="11"/>
+      <c r="H22" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="11"/>
+      <c r="H23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
